--- a/lidargo/configs/config_examples_format.xlsx
+++ b/lidargo/configs/config_examples_format.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SLETIZIA\OneDrive - NREL\Desktop\Main\Software\FIEXTA\lidargo\configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SLETIZIA\OneDrive - NREL\Desktop\Main\Software\FIEXTA\configs\lidargo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15D23793-0770-46C8-B3D0-C8386429FB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A87E34F-B94A-403D-A1BE-24F067275FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,94 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>azimuth_offset</t>
+  </si>
+  <si>
+    <t>min_azi_step</t>
+  </si>
+  <si>
+    <t>max_azi_step</t>
+  </si>
+  <si>
+    <t>min_ele_step</t>
+  </si>
+  <si>
+    <t>max_ele_step</t>
+  </si>
+  <si>
+    <t>ang_tol</t>
+  </si>
+  <si>
+    <t>count_threshold</t>
+  </si>
+  <si>
+    <t>min_scan_duration</t>
+  </si>
+  <si>
+    <t>dx</t>
+  </si>
+  <si>
+    <t>dy</t>
+  </si>
+  <si>
+    <t>dz</t>
+  </si>
+  <si>
+    <t>dtime</t>
+  </si>
+  <si>
+    <t>range_min</t>
+  </si>
+  <si>
+    <t>range_max</t>
+  </si>
+  <si>
+    <t>snr_min</t>
+  </si>
+  <si>
+    <t>rws_max</t>
+  </si>
+  <si>
+    <t>rws_norm_limit</t>
+  </si>
+  <si>
+    <t>rws_standard_error_limit</t>
+  </si>
+  <si>
+    <t>snr_standard_error_limit</t>
+  </si>
+  <si>
+    <t>local_population_min_limit</t>
+  </si>
+  <si>
+    <t>local_scattering_min_limit</t>
+  </si>
+  <si>
+    <t>N_probability_bins</t>
+  </si>
+  <si>
+    <t>min_percentile</t>
+  </si>
+  <si>
+    <t>max_percentile</t>
+  </si>
+  <si>
+    <t>min_probability_range</t>
+  </si>
+  <si>
+    <t>max_probability_range</t>
+  </si>
+  <si>
+    <t>rws_norm_increase_limit</t>
+  </si>
+  <si>
+    <t>data_level_in</t>
+  </si>
   <si>
     <t>a0</t>
   </si>
@@ -41,25 +128,61 @@
     <t>data_level_out</t>
   </si>
   <si>
+    <t>b0</t>
+  </si>
+  <si>
+    <t>ground_level</t>
+  </si>
+  <si>
+    <t>N_resonance_bins</t>
+  </si>
+  <si>
+    <t>max_resonance_rmse</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>awaken</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>rhi</t>
+  </si>
+  <si>
+    <t>sc1.lidar.z01.a0.\d{8}.\d{6}.user4.nc</t>
+  </si>
+  <si>
+    <t>vol</t>
+  </si>
+  <si>
+    <t>vad</t>
+  </si>
+  <si>
+    <t>sa5.lidar.z03.a0.\d{8}.\d{6}.user5.nc</t>
+  </si>
+  <si>
+    <t>stare</t>
+  </si>
+  <si>
+    <t>ppi</t>
+  </si>
+  <si>
     <t>regex</t>
   </si>
   <si>
-    <t>User4_137_\d{8}_\d{6}.hpl</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>halo</t>
-  </si>
-  <si>
-    <t>site</t>
-  </si>
-  <si>
-    <t>sc1</t>
-  </si>
-  <si>
-    <t>instrument_id</t>
+    <t>sc1.lidar.z02.a0.\d{8}.\d{6}.nc</t>
+  </si>
+  <si>
+    <t>sa1.lidar.z05.a0.\d{8}.\d{6}.user5.nc</t>
+  </si>
+  <si>
+    <t>sa1.lidar.z05.vad.a0.\d{8}.\d{6}.user5.nc</t>
   </si>
 </sst>
 </file>
@@ -105,12 +228,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -132,49 +261,73 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,11 +634,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C12" sqref="C12"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -501,286 +654,754 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="B3" s="16">
+        <v>20230101</v>
+      </c>
+      <c r="C3" s="16">
+        <v>20230101</v>
+      </c>
+      <c r="D3" s="16">
+        <v>20230101</v>
+      </c>
+      <c r="E3" s="16">
+        <v>20230101</v>
+      </c>
+      <c r="F3" s="16">
+        <v>20230101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="B4" s="16">
+        <v>20240101</v>
+      </c>
+      <c r="C4" s="16">
+        <v>20250101</v>
+      </c>
+      <c r="D4" s="16">
+        <v>20250101</v>
+      </c>
+      <c r="E4" s="16">
+        <v>20250101</v>
+      </c>
+      <c r="F4" s="16">
+        <v>20240101</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="B5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="17">
+        <f>270-22</f>
+        <v>248</v>
+      </c>
+      <c r="C6" s="17">
+        <v>90</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="17">
+        <v>0</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="18">
+        <v>-0.1</v>
+      </c>
+      <c r="C10" s="18">
+        <v>-3</v>
+      </c>
+      <c r="D10" s="18">
+        <v>-40</v>
+      </c>
+      <c r="E10" s="18">
+        <v>-0.1</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="18">
+        <v>3</v>
+      </c>
+      <c r="D11" s="18">
+        <v>40</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="C12" s="18">
+        <v>-0.1</v>
+      </c>
+      <c r="D12" s="18">
+        <v>-0.1</v>
+      </c>
+      <c r="E12" s="18">
+        <v>-0.1</v>
+      </c>
+      <c r="F12" s="18">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="18">
+        <v>2.1</v>
+      </c>
+      <c r="C13" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="19">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="20">
+        <v>2</v>
+      </c>
+      <c r="C16" s="20">
+        <v>2</v>
+      </c>
+      <c r="D16" s="20">
+        <v>2</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="21">
+        <v>200</v>
+      </c>
+      <c r="C17" s="21">
+        <v>200</v>
+      </c>
+      <c r="D17" s="21">
+        <v>200</v>
+      </c>
+      <c r="E17" s="21">
+        <v>200</v>
+      </c>
+      <c r="F17" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="21">
+        <v>200</v>
+      </c>
+      <c r="C18" s="21">
+        <v>200</v>
+      </c>
+      <c r="D18" s="21">
+        <v>200</v>
+      </c>
+      <c r="E18" s="21">
+        <v>200</v>
+      </c>
+      <c r="F18" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="21">
+        <v>50</v>
+      </c>
+      <c r="C19" s="21">
+        <v>50</v>
+      </c>
+      <c r="D19" s="21">
+        <v>50</v>
+      </c>
+      <c r="E19" s="21">
+        <v>50</v>
+      </c>
+      <c r="F19" s="21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="21">
+        <v>600</v>
+      </c>
+      <c r="C20" s="21">
+        <v>600</v>
+      </c>
+      <c r="D20" s="21">
+        <v>600</v>
+      </c>
+      <c r="E20" s="21">
+        <v>600</v>
+      </c>
+      <c r="F20" s="21">
+        <v>600</v>
+      </c>
     </row>
     <row r="21" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="17">
+        <v>50</v>
+      </c>
+      <c r="C21" s="17">
+        <v>50</v>
+      </c>
+      <c r="D21" s="17">
+        <v>50</v>
+      </c>
+      <c r="E21" s="17">
+        <v>50</v>
+      </c>
+      <c r="F21" s="17">
+        <v>50</v>
+      </c>
     </row>
     <row r="22" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="17">
+        <v>5000</v>
+      </c>
+      <c r="C22" s="17">
+        <v>5000</v>
+      </c>
+      <c r="D22" s="17">
+        <v>5000</v>
+      </c>
+      <c r="E22" s="17">
+        <v>5000</v>
+      </c>
+      <c r="F22" s="17">
+        <v>6000</v>
+      </c>
     </row>
     <row r="23" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="17">
+        <v>-25</v>
+      </c>
+      <c r="C23" s="17">
+        <v>-25</v>
+      </c>
+      <c r="D23" s="17">
+        <v>-25</v>
+      </c>
+      <c r="E23" s="17">
+        <v>-25</v>
+      </c>
+      <c r="F23" s="17">
+        <v>-30</v>
+      </c>
     </row>
     <row r="24" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="17">
+        <v>50</v>
+      </c>
+      <c r="C24" s="17">
+        <v>50</v>
+      </c>
+      <c r="D24" s="17">
+        <v>50</v>
+      </c>
+      <c r="E24" s="17">
+        <v>50</v>
+      </c>
+      <c r="F24" s="17">
+        <v>50</v>
+      </c>
     </row>
     <row r="25" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="D25" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="F25" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+    </row>
+    <row r="26" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="17">
+        <v>30</v>
+      </c>
+      <c r="C26" s="17">
+        <v>30</v>
+      </c>
+      <c r="D26" s="17">
+        <v>30</v>
+      </c>
+      <c r="E26" s="17">
+        <v>30</v>
+      </c>
+      <c r="F26" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="17">
+        <v>20</v>
+      </c>
+      <c r="C27" s="17">
+        <v>20</v>
+      </c>
+      <c r="D27" s="17">
+        <v>20</v>
+      </c>
+      <c r="E27" s="17">
+        <v>20</v>
+      </c>
+      <c r="F27" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="20">
+        <v>1</v>
+      </c>
+      <c r="C28" s="20">
+        <v>1</v>
+      </c>
+      <c r="D28" s="20">
+        <v>1</v>
+      </c>
+      <c r="E28" s="20">
+        <v>1</v>
+      </c>
+      <c r="F28" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="20">
+        <v>1</v>
+      </c>
+      <c r="C29" s="20">
+        <v>1</v>
+      </c>
+      <c r="D29" s="20">
+        <v>1</v>
+      </c>
+      <c r="E29" s="20">
+        <v>1</v>
+      </c>
+      <c r="F29" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="A30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="17">
+        <v>30</v>
+      </c>
+      <c r="C30" s="17">
+        <v>300</v>
+      </c>
+      <c r="D30" s="17">
+        <v>100</v>
+      </c>
+      <c r="E30" s="17">
+        <v>30</v>
+      </c>
+      <c r="F30" s="17">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:16" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" spans="1:6" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="A31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="C31" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="21">
+        <v>25</v>
+      </c>
+      <c r="C32" s="21">
+        <v>25</v>
+      </c>
+      <c r="D32" s="21">
+        <v>25</v>
+      </c>
+      <c r="E32" s="21">
+        <v>25</v>
+      </c>
+      <c r="F32" s="21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="21">
+        <v>1</v>
+      </c>
+      <c r="C33" s="21">
+        <v>1</v>
+      </c>
+      <c r="D33" s="21">
+        <v>1</v>
+      </c>
+      <c r="E33" s="21">
+        <v>1</v>
+      </c>
+      <c r="F33" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="21">
+        <v>99</v>
+      </c>
+      <c r="C34" s="21">
+        <v>99</v>
+      </c>
+      <c r="D34" s="21">
+        <v>99</v>
+      </c>
+      <c r="E34" s="21">
+        <v>99</v>
+      </c>
+      <c r="F34" s="21">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="C35" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="D35" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="E35" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="F35" s="22">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="C36" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="D36" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="E36" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="F36" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="C37" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="D37" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="E37" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="F37" s="18">
+        <v>0.25</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
